--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2546.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2546.xlsx
@@ -354,7 +354,7 @@
         <v>2.208915732426503</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.322458458025154</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2546.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2546.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.296844526515634</v>
+        <v>1.866888523101807</v>
       </c>
       <c r="B1">
-        <v>2.208915732426503</v>
+        <v>2.351571083068848</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.395833015441895</v>
       </c>
       <c r="D1">
-        <v>1.322458458025154</v>
+        <v>2.920371294021606</v>
       </c>
       <c r="E1">
-        <v>0.9952139152136127</v>
+        <v>0.6254712343215942</v>
       </c>
     </row>
   </sheetData>
